--- a/bots/crawl_ch/output/toilet_coop_2022-09-11.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-09-11.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1471,50 +1471,50 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3630714</t>
+          <t>6577910</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>55ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1534,17 +1534,17 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier 25% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1617,50 +1617,50 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6577910</t>
+          <t>3630714</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>55ST</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1680,17 +1680,17 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier 25% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -1907,137 +1907,137 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3874909</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.12/1ST</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>3874909</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.12/1ST</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-11 07:02:59</t>
+          <t>2022-09-11 20:59:21</t>
         </is>
       </c>
     </row>
